--- a/sales results/SalesResults-30-05-2025.xlsx
+++ b/sales results/SalesResults-30-05-2025.xlsx
@@ -8,14 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\development\UiPath\Excel reports consolidation\sales results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80767E97-74E4-4521-847F-8AC8801BC851}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF51B292-57F5-40C5-A103-5EE9805E14C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A29420B9-7CD4-4C18-BD8B-FE6CC214A108}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B400EF89-FAD8-4A17-A99D-99832CA4BB25}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <pivotCaches>
+    <pivotCache cacheId="3" r:id="rId4"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="17">
   <si>
     <t>Item</t>
   </si>
@@ -78,6 +83,15 @@
   </si>
   <si>
     <t>Iced Tea</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Sum of Total income</t>
   </si>
 </sst>
 </file>
@@ -128,9 +142,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -146,6 +165,632 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[SalesResults-30-05-2025.xlsx]Sheet2!Sales by story</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:delete val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$A$2:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>Americano</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Cappuccino</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Cold Brew</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Espresso</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Flat White</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Hot Tea</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Iced Tea</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Latte</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Macchiato</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Mocha</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$2:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>70404</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>558</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>666</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>444</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>374.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>819</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>738.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>850.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0821-4672-9C3A-DC8A64A31208}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>71120</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C58895C5-1BC7-1E85-B481-1DAA2C4EED73}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Cojocari Vasilii" refreshedDate="45807.689345486113" createdVersion="1" refreshedVersion="8" recordCount="40" xr:uid="{12304F2A-09C1-4F98-B561-F27FD5AA2FF5}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:D41" sheet="Sheet1"/>
+  </cacheSource>
+  <cacheFields count="4">
+    <cacheField name="Item" numFmtId="0">
+      <sharedItems count="10">
+        <s v="Espresso"/>
+        <s v="Americano"/>
+        <s v="Macchiato"/>
+        <s v="Cappuccino"/>
+        <s v="Latte"/>
+        <s v="Flat White"/>
+        <s v="Mocha"/>
+        <s v="Cold Brew"/>
+        <s v="Hot Tea"/>
+        <s v="Iced Tea"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Unit Price" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="3" maxValue="2000"/>
+    </cacheField>
+    <cacheField name="Item sold" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="10" maxValue="134"/>
+    </cacheField>
+    <cacheField name="Total income" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="35" maxValue="70000"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="40">
+  <r>
+    <x v="0"/>
+    <n v="3"/>
+    <n v="22"/>
+    <n v="66"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="3"/>
+    <n v="13"/>
+    <n v="39"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="3.5"/>
+    <n v="121"/>
+    <n v="423.5"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="4"/>
+    <n v="53"/>
+    <n v="212"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="4.5"/>
+    <n v="12"/>
+    <n v="54"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="4.5"/>
+    <n v="12"/>
+    <n v="54"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="4.5"/>
+    <n v="14"/>
+    <n v="63"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="4"/>
+    <n v="55"/>
+    <n v="220"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="3"/>
+    <n v="42"/>
+    <n v="126"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="3.5"/>
+    <n v="11"/>
+    <n v="38.5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="3"/>
+    <n v="52"/>
+    <n v="156"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="3"/>
+    <n v="12"/>
+    <n v="36"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="3.5"/>
+    <n v="24"/>
+    <n v="84"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="2000"/>
+    <n v="35"/>
+    <n v="70000"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="4.5"/>
+    <n v="14"/>
+    <n v="63"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="4.5"/>
+    <n v="22"/>
+    <n v="99"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="4.5"/>
+    <n v="123"/>
+    <n v="553.5"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="4"/>
+    <n v="31"/>
+    <n v="124"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="3"/>
+    <n v="12"/>
+    <n v="36"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="3.5"/>
+    <n v="66"/>
+    <n v="231"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="3"/>
+    <n v="38"/>
+    <n v="114"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="3"/>
+    <n v="12"/>
+    <n v="36"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="3.5"/>
+    <n v="44"/>
+    <n v="154"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="4"/>
+    <n v="35"/>
+    <n v="140"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="4.5"/>
+    <n v="134"/>
+    <n v="603"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="4.5"/>
+    <n v="50"/>
+    <n v="225"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="4.5"/>
+    <n v="42"/>
+    <n v="189"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="4"/>
+    <n v="12"/>
+    <n v="48"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="3"/>
+    <n v="63"/>
+    <n v="189"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="3.5"/>
+    <n v="10"/>
+    <n v="35"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="3"/>
+    <n v="74"/>
+    <n v="222"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="3"/>
+    <n v="23"/>
+    <n v="69"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="3.5"/>
+    <n v="22"/>
+    <n v="77"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="4"/>
+    <n v="13"/>
+    <n v="52"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="4.5"/>
+    <n v="22"/>
+    <n v="99"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="4.5"/>
+    <n v="64"/>
+    <n v="288"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="4.5"/>
+    <n v="10"/>
+    <n v="45"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="4"/>
+    <n v="22"/>
+    <n v="88"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="3"/>
+    <n v="31"/>
+    <n v="93"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="3.5"/>
+    <n v="20"/>
+    <n v="70"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{59263B92-9F57-4E95-995D-45744AB94AB6}" name="Sales by story" cacheId="3" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Data" updatedVersion="8" asteriskTotals="1" showMultipleLabel="0" showMemberPropertyTips="0" useAutoFormatting="1" itemPrintTitles="1" showDropZones="0" indent="0" outline="1" outlineData="1" chartFormat="1">
+  <location ref="A1:B12" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="4">
+    <pivotField axis="axisRow" showAll="0" includeNewItemsInFilter="1">
+      <items count="11">
+        <item x="1"/>
+        <item x="3"/>
+        <item x="7"/>
+        <item x="0"/>
+        <item x="5"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="4"/>
+        <item x="2"/>
+        <item x="6"/>
+        <item t="default"/>
+      </items>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField showAll="0" includeNewItemsInFilter="1">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField showAll="0" includeNewItemsInFilter="1">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField dataField="1" showAll="0" includeNewItemsInFilter="1">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="11">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Total income" fld="3" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" fillDownLabelsDefault="1" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -464,11 +1109,137 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB2AE07F-4227-4DB7-9366-BF0D755DC1BF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A32D646-481B-47D3-953B-511236F0CE03}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4AEC166-CA6F-41A0-839B-FB10BD6F42A1}">
+  <dimension ref="A1:B12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1">
+        <v>70404</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="1">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="1">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="1">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="1">
+        <v>374.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="1">
+        <v>738.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1">
+        <v>850.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="1">
+        <v>75514.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CAC2FBB-A0E6-4F5D-88CA-D2B955315ABD}">
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32:D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -480,16 +1251,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -680,13 +1451,13 @@
         <v>7</v>
       </c>
       <c r="B15">
-        <v>4</v>
+        <v>2000</v>
       </c>
       <c r="C15">
         <v>35</v>
       </c>
       <c r="D15">
-        <v>140</v>
+        <v>70000</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
